--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf10-Tnfrsf10b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.54967</v>
+        <v>13.86674266666667</v>
       </c>
       <c r="H2">
-        <v>52.64901</v>
+        <v>41.600228</v>
       </c>
       <c r="I2">
-        <v>0.9874120321709955</v>
+        <v>0.9894894203110381</v>
       </c>
       <c r="J2">
-        <v>0.9874120321709953</v>
+        <v>0.989489420311038</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.035148333333333</v>
+        <v>5.079146</v>
       </c>
       <c r="N2">
-        <v>21.105445</v>
+        <v>15.237438</v>
       </c>
       <c r="O2">
-        <v>0.6717277578060169</v>
+        <v>0.707738273396773</v>
       </c>
       <c r="P2">
-        <v>0.671727757806017</v>
+        <v>0.7077382733967729</v>
       </c>
       <c r="Q2">
-        <v>123.46453165105</v>
+        <v>70.43121054842933</v>
       </c>
       <c r="R2">
-        <v>1111.18078485945</v>
+        <v>633.880894935864</v>
       </c>
       <c r="S2">
-        <v>0.6632720704009054</v>
+        <v>0.700299533875308</v>
       </c>
       <c r="T2">
-        <v>0.6632720704009054</v>
+        <v>0.7002995338753077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.54967</v>
+        <v>13.86674266666667</v>
       </c>
       <c r="H3">
-        <v>52.64901</v>
+        <v>41.600228</v>
       </c>
       <c r="I3">
-        <v>0.9874120321709955</v>
+        <v>0.9894894203110381</v>
       </c>
       <c r="J3">
-        <v>0.9874120321709953</v>
+        <v>0.989489420311038</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.495248999999999</v>
       </c>
       <c r="O3">
-        <v>0.1430713037109494</v>
+        <v>0.2087923026002514</v>
       </c>
       <c r="P3">
-        <v>0.1430713037109494</v>
+        <v>0.2087923026002514</v>
       </c>
       <c r="Q3">
-        <v>26.29671217260999</v>
+        <v>20.77815370186355</v>
       </c>
       <c r="R3">
-        <v>236.6704095534899</v>
+        <v>187.003383316772</v>
       </c>
       <c r="S3">
-        <v>0.1412703267425823</v>
+        <v>0.2065977744653296</v>
       </c>
       <c r="T3">
-        <v>0.1412703267425822</v>
+        <v>0.2065977744653296</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.54967</v>
+        <v>13.86674266666667</v>
       </c>
       <c r="H4">
-        <v>52.64901</v>
+        <v>41.600228</v>
       </c>
       <c r="I4">
-        <v>0.9874120321709955</v>
+        <v>0.9894894203110381</v>
       </c>
       <c r="J4">
-        <v>0.9874120321709953</v>
+        <v>0.989489420311038</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.939649</v>
+        <v>0.5990256666666667</v>
       </c>
       <c r="N4">
-        <v>5.818947000000001</v>
+        <v>1.797077</v>
       </c>
       <c r="O4">
-        <v>0.1852009384830336</v>
+        <v>0.08346942400297561</v>
       </c>
       <c r="P4">
-        <v>0.1852009384830336</v>
+        <v>0.08346942400297561</v>
       </c>
       <c r="Q4">
-        <v>34.04019986583</v>
+        <v>8.306534770395112</v>
       </c>
       <c r="R4">
-        <v>306.36179879247</v>
+        <v>74.758812933556</v>
       </c>
       <c r="S4">
-        <v>0.1828696350275077</v>
+        <v>0.08259211197040059</v>
       </c>
       <c r="T4">
-        <v>0.1828696350275077</v>
+        <v>0.08259211197040058</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.275156</v>
       </c>
       <c r="I5">
-        <v>0.005160445469421788</v>
+        <v>0.006544770642485517</v>
       </c>
       <c r="J5">
-        <v>0.005160445469421788</v>
+        <v>0.006544770642485517</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.035148333333333</v>
+        <v>5.079146</v>
       </c>
       <c r="N5">
-        <v>21.105445</v>
+        <v>15.237438</v>
       </c>
       <c r="O5">
-        <v>0.6717277578060169</v>
+        <v>0.707738273396773</v>
       </c>
       <c r="P5">
-        <v>0.671727757806017</v>
+        <v>0.7077382733967729</v>
       </c>
       <c r="Q5">
-        <v>0.6452544249355555</v>
+        <v>0.4658524989253333</v>
       </c>
       <c r="R5">
-        <v>5.80728982442</v>
+        <v>4.192672490328</v>
       </c>
       <c r="S5">
-        <v>0.003466414464454916</v>
+        <v>0.004631984674290588</v>
       </c>
       <c r="T5">
-        <v>0.003466414464454916</v>
+        <v>0.004631984674290587</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.275156</v>
       </c>
       <c r="I6">
-        <v>0.005160445469421788</v>
+        <v>0.006544770642485517</v>
       </c>
       <c r="J6">
-        <v>0.005160445469421788</v>
+        <v>0.006544770642485517</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.495248999999999</v>
       </c>
       <c r="O6">
-        <v>0.1430713037109494</v>
+        <v>0.2087923026002514</v>
       </c>
       <c r="P6">
-        <v>0.1430713037109494</v>
+        <v>0.2087923026002514</v>
       </c>
       <c r="Q6">
         <v>0.1374327482048889</v>
@@ -818,10 +818,10 @@
         <v>1.236894733844</v>
       </c>
       <c r="S6">
-        <v>0.0007383116610394378</v>
+        <v>0.001366497732435078</v>
       </c>
       <c r="T6">
-        <v>0.0007383116610394377</v>
+        <v>0.001366497732435078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.275156</v>
       </c>
       <c r="I7">
-        <v>0.005160445469421788</v>
+        <v>0.006544770642485517</v>
       </c>
       <c r="J7">
-        <v>0.005160445469421788</v>
+        <v>0.006544770642485517</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.939649</v>
+        <v>0.5990256666666667</v>
       </c>
       <c r="N7">
-        <v>5.818947000000001</v>
+        <v>1.797077</v>
       </c>
       <c r="O7">
-        <v>0.1852009384830336</v>
+        <v>0.08346942400297561</v>
       </c>
       <c r="P7">
-        <v>0.1852009384830336</v>
+        <v>0.08346942400297561</v>
       </c>
       <c r="Q7">
-        <v>0.1779020200813334</v>
+        <v>0.05494183544577778</v>
       </c>
       <c r="R7">
-        <v>1.601118180732</v>
+        <v>0.494476519012</v>
       </c>
       <c r="S7">
-        <v>0.0009557193439274342</v>
+        <v>0.0005462882357598507</v>
       </c>
       <c r="T7">
-        <v>0.000955719343927434</v>
+        <v>0.0005462882357598507</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1320123333333333</v>
+        <v>0.05557699999999999</v>
       </c>
       <c r="H8">
-        <v>0.396037</v>
+        <v>0.166731</v>
       </c>
       <c r="I8">
-        <v>0.007427522359582915</v>
+        <v>0.003965809046476372</v>
       </c>
       <c r="J8">
-        <v>0.007427522359582914</v>
+        <v>0.003965809046476372</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.035148333333333</v>
+        <v>5.079146</v>
       </c>
       <c r="N8">
-        <v>21.105445</v>
+        <v>15.237438</v>
       </c>
       <c r="O8">
-        <v>0.6717277578060169</v>
+        <v>0.707738273396773</v>
       </c>
       <c r="P8">
-        <v>0.671727757806017</v>
+        <v>0.7077382733967729</v>
       </c>
       <c r="Q8">
-        <v>0.9287263468294442</v>
+        <v>0.282283697242</v>
       </c>
       <c r="R8">
-        <v>8.358537121465</v>
+        <v>2.540553275178</v>
       </c>
       <c r="S8">
-        <v>0.004989272940656687</v>
+        <v>0.00280675484717449</v>
       </c>
       <c r="T8">
-        <v>0.004989272940656688</v>
+        <v>0.00280675484717449</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1320123333333333</v>
+        <v>0.05557699999999999</v>
       </c>
       <c r="H9">
-        <v>0.396037</v>
+        <v>0.166731</v>
       </c>
       <c r="I9">
-        <v>0.007427522359582915</v>
+        <v>0.003965809046476372</v>
       </c>
       <c r="J9">
-        <v>0.007427522359582914</v>
+        <v>0.003965809046476372</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.495248999999999</v>
       </c>
       <c r="O9">
-        <v>0.1430713037109494</v>
+        <v>0.2087923026002514</v>
       </c>
       <c r="P9">
-        <v>0.1430713037109494</v>
+        <v>0.2087923026002514</v>
       </c>
       <c r="Q9">
-        <v>0.1978094364681111</v>
+        <v>0.08327748455766665</v>
       </c>
       <c r="R9">
-        <v>1.780284928213</v>
+        <v>0.7494973610189999</v>
       </c>
       <c r="S9">
-        <v>0.001062665307327755</v>
+        <v>0.0008280304024867092</v>
       </c>
       <c r="T9">
-        <v>0.001062665307327755</v>
+        <v>0.0008280304024867092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1320123333333333</v>
+        <v>0.05557699999999999</v>
       </c>
       <c r="H10">
-        <v>0.396037</v>
+        <v>0.166731</v>
       </c>
       <c r="I10">
-        <v>0.007427522359582915</v>
+        <v>0.003965809046476372</v>
       </c>
       <c r="J10">
-        <v>0.007427522359582914</v>
+        <v>0.003965809046476372</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.939649</v>
+        <v>0.5990256666666667</v>
       </c>
       <c r="N10">
-        <v>5.818947000000001</v>
+        <v>1.797077</v>
       </c>
       <c r="O10">
-        <v>0.1852009384830336</v>
+        <v>0.08346942400297561</v>
       </c>
       <c r="P10">
-        <v>0.1852009384830336</v>
+        <v>0.08346942400297561</v>
       </c>
       <c r="Q10">
-        <v>0.2560575903376667</v>
+        <v>0.03329204947633333</v>
       </c>
       <c r="R10">
-        <v>2.304518313039</v>
+        <v>0.299628445287</v>
       </c>
       <c r="S10">
-        <v>0.001375584111598472</v>
+        <v>0.0003310237968151727</v>
       </c>
       <c r="T10">
-        <v>0.001375584111598472</v>
+        <v>0.0003310237968151727</v>
       </c>
     </row>
   </sheetData>
